--- a/Onderdelen.xlsx
+++ b/Onderdelen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/yaron_verhulst_student_kuleuven_be/Documents/KULAK Fase 1 Sem 2/P&amp;O2/GitHub/Po2_Team4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\defor_j2rgzha\OneDrive\Documenten\PnO2\github\Po2_Team4\Po2_Team4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{19705F01-1C5D-4451-860A-87FB6F789F48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9E2239A-5679-419D-B42C-D948C5C18197}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D5FC7-F153-499F-B36B-823F8457DEC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D40D73F7-95A3-4968-A670-5B2F68A4BB40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D40D73F7-95A3-4968-A670-5B2F68A4BB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Onderdelen</t>
   </si>
@@ -112,6 +111,9 @@
   </si>
   <si>
     <t>Dit is een test</t>
+  </si>
+  <si>
+    <t>kobe stinkt</t>
   </si>
 </sst>
 </file>
@@ -167,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA8AB57E-2F0E-469E-AD56-447AFC683B85}" name="Tabel2" displayName="Tabel2" ref="C4:E18" totalsRowShown="0">
-  <autoFilter ref="C4:E18" xr:uid="{58AD9354-FD67-4E76-9F40-0A57B41FC7C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA8AB57E-2F0E-469E-AD56-447AFC683B85}" name="Tabel2" displayName="Tabel2" ref="C4:E19" totalsRowShown="0">
+  <autoFilter ref="C4:E19" xr:uid="{58AD9354-FD67-4E76-9F40-0A57B41FC7C5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BCB67691-A4B2-46A0-89D0-7F748BA03829}" name="Onderdelen"/>
     <tableColumn id="2" xr3:uid="{1ED2978D-0BBB-4AF9-9276-01470C74D84F}" name="Waarom?"/>
@@ -475,20 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D954B945-784F-4A68-849C-F4FCBFFCDDB3}">
-  <dimension ref="C4:E18"/>
+  <dimension ref="C4:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -499,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -510,7 +512,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -521,7 +523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -532,7 +534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -543,7 +545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -551,7 +553,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -562,7 +564,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -573,7 +575,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -584,7 +586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -592,7 +594,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -600,7 +602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -611,7 +613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -622,14 +624,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
